--- a/Checklist.AliExpress.xlsx
+++ b/Checklist.AliExpress.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albina\Test-artifacts.git\Test-artifacts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47012C8-C2D0-4BD9-AFE1-D03FFFCB9964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Оглавление" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Чек-лист" sheetId="2" r:id="rId5"/>
+    <sheet name="Оглавление" sheetId="1" r:id="rId1"/>
+    <sheet name="Чек-лист" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="81">
   <si>
     <t>Дата проведения тестирования</t>
   </si>
@@ -301,46 +310,53 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -350,7 +366,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -378,7 +394,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -392,101 +414,118 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF93C47D"/>
           <bgColor rgb="FF93C47D"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFEA9999"/>
           <bgColor rgb="FFEA9999"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7B7B7"/>
-          <bgColor rgb="FFB7B7B7"/>
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -676,24 +715,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A5:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.75"/>
-    <col customWidth="1" min="2" max="2" width="29.63"/>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -710,28 +752,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -739,29 +781,30 @@
       <c r="E9" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="98.0"/>
-    <col customWidth="1" min="3" max="3" width="20.63"/>
-    <col customWidth="1" min="4" max="4" width="16.13"/>
+    <col min="1" max="1" width="98" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -776,817 +819,836 @@
       </c>
       <c r="E1" s="4"/>
     </row>
-    <row r="2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
         <v>26</v>
       </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="5" t="s">
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>29</v>
       </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39">
-      <c r="A39" s="6" t="s">
+    <row r="39" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40">
-      <c r="A40" s="6" t="s">
+    <row r="40" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
-    <row r="41">
-      <c r="A41" s="6" t="s">
+    <row r="41" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
-    <row r="42">
-      <c r="A42" s="11" t="s">
+    <row r="42" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43">
-      <c r="A43" s="6" t="s">
+    <row r="43" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
-    <row r="44">
-      <c r="A44" s="6" t="s">
+    <row r="44" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45">
-      <c r="A45" s="6" t="s">
+    <row r="45" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
     </row>
-    <row r="46">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
         <v>53</v>
       </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
       <c r="E46" s="4"/>
     </row>
-    <row r="47">
-      <c r="A47" s="6" t="s">
+    <row r="47" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48">
-      <c r="A48" s="6" t="s">
+    <row r="48" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
-    <row r="49">
-      <c r="A49" s="9" t="s">
+    <row r="49" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
       <c r="E49" s="4"/>
     </row>
-    <row r="50">
-      <c r="A50" s="6" t="s">
+    <row r="50" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
     </row>
-    <row r="51">
-      <c r="A51" s="6" t="s">
+    <row r="51" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
     </row>
-    <row r="52">
-      <c r="A52" s="6" t="s">
+    <row r="52" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
     </row>
-    <row r="53">
-      <c r="A53" s="6" t="s">
+    <row r="53" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
     </row>
-    <row r="54">
-      <c r="A54" s="11" t="s">
+    <row r="54" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
     </row>
-    <row r="55">
-      <c r="A55" s="6" t="s">
+    <row r="55" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
-    <row r="56">
-      <c r="A56" s="6" t="s">
+    <row r="56" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
     </row>
-    <row r="57">
-      <c r="A57" s="6" t="s">
+    <row r="57" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
     </row>
-    <row r="58">
-      <c r="A58" s="6" t="s">
+    <row r="58" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
     </row>
-    <row r="59">
-      <c r="A59" s="6" t="s">
+    <row r="59" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
     </row>
-    <row r="60">
-      <c r="A60" s="13" t="s">
+    <row r="60" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
     </row>
-    <row r="61">
-      <c r="A61" s="6" t="s">
+    <row r="61" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
     </row>
-    <row r="62">
-      <c r="A62" s="6" t="s">
+    <row r="62" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
     </row>
-    <row r="63">
-      <c r="A63" s="6" t="s">
+    <row r="63" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
     </row>
-    <row r="64">
-      <c r="A64" s="9" t="s">
+    <row r="64" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="12"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
       <c r="E64" s="4"/>
     </row>
-    <row r="65">
-      <c r="A65" s="6" t="s">
+    <row r="65" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
     </row>
-    <row r="66">
-      <c r="A66" s="6" t="s">
+    <row r="66" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
     </row>
-    <row r="67">
-      <c r="A67" s="11" t="s">
+    <row r="67" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
     </row>
-    <row r="68">
-      <c r="A68" s="6" t="s">
+    <row r="68" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
     </row>
-    <row r="69">
-      <c r="A69" s="6" t="s">
+    <row r="69" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
     </row>
-    <row r="70">
-      <c r="A70" s="6" t="s">
+    <row r="70" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
     </row>
-    <row r="71">
-      <c r="A71" s="6" t="s">
+    <row r="71" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
     </row>
-    <row r="72">
-      <c r="A72" s="13" t="s">
+    <row r="72" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
     </row>
-    <row r="73">
-      <c r="A73" s="6" t="s">
+    <row r="73" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
     </row>
-    <row r="74">
-      <c r="A74" s="6" t="s">
+    <row r="74" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
     </row>
-    <row r="75">
-      <c r="A75" s="6" t="s">
+    <row r="75" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
     </row>
-    <row r="76">
-      <c r="A76" s="5" t="s">
+    <row r="76" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
         <v>78</v>
       </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
       <c r="E76" s="4"/>
     </row>
-    <row r="77">
-      <c r="A77" s="6" t="s">
+    <row r="77" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
     </row>
-    <row r="78">
-      <c r="A78" s="6" t="s">
+    <row r="78" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -1602,31 +1664,46 @@
     <mergeCell ref="A76:D76"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B18 B23:B25 B27:B33 B35:B45 B47:B48 B50:B63 B65:B75 B77:B78">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH(("Pass"),(B3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B18 B23:B25 B27:B33 B35:B45 B47:B48 B50:B63 B65:B75 B77:B78">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH(("Fail"),(B3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B18 B23:B25 B27:B33 B35:B45 B47:B48 B50:B63 B65:B75 B77:B78">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Skip">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Skip">
       <formula>NOT(ISERROR(SEARCH(("Skip"),(B3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="B3:B18 B23:B25 B27:B33 B35:B45 B47:B48 B50:B63 B65:B75 B77:B78">
+  <conditionalFormatting sqref="B20:B21">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH(("Pass"),(B20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:B21">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH(("Fail"),(B20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:B21">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Skip">
+      <formula>NOT(ISERROR(SEARCH(("Skip"),(B20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="B3:B18 B23:B25 B27:B33 B35:B45 B47:B48 B50:B63 B65:B75 B77:B78 B20:B21" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Pass,Fail,Skip,Not run"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A26"/>
-    <hyperlink r:id="rId2" ref="A34"/>
-    <hyperlink r:id="rId3" ref="A49"/>
-    <hyperlink r:id="rId4" ref="A64"/>
+    <hyperlink ref="A26" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A34" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A49" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A64" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
-  <drawing r:id="rId5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>